--- a/web/public/China-Telecom.xlsx
+++ b/web/public/China-Telecom.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/junyang/app/smart-answer/web/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F491C077-B865-ED43-B4B1-D44C1CCA1009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705859DC-5C50-9742-A263-EC66F6B33E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2300" yWindow="2320" windowWidth="26840" windowHeight="15940" xr2:uid="{4609CC16-E2B6-4D4D-A27D-929F86E3FF33}"/>
+    <workbookView xWindow="200" yWindow="760" windowWidth="30040" windowHeight="17940" xr2:uid="{4609CC16-E2B6-4D4D-A27D-929F86E3FF33}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
   <si>
     <t>Symptom Detail</t>
   </si>
@@ -132,6 +133,41 @@
   </si>
   <si>
     <t>High Level Symptom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Root Partition full  in vCenter Server Appliance or Platform Service Controller 
+</t>
+  </si>
+  <si>
+    <t># Root Partition full due to dnsmasq.log files in vCenter Server Appliance or Platform Service Controller 
+## Summary
+52258, The root partition on the vCenter Server Appliance or Platform Service Controller is full, or nearing full. You see that dnsmasq.log files are available on the root partition.
+## Symptoms
+* The root partition on the vCenter Server Appliance or Platform Service Controller is full, or nearing full.
+* You see that dnsmasq.log files are available on the root partition.</t>
+  </si>
+  <si>
+    <t>This issue occurs because dnsmasq.log is being directed to /var/log/ instead of /var/log/vmware/.</t>
+  </si>
+  <si>
+    <t>Audit.log files not being rotated</t>
+  </si>
+  <si>
+    <t>root partition full in vCenter Application</t>
+  </si>
+  <si>
+    <t>*100% capacity used for /dev/sda3.
+*Size of audit.log file is very large and /var/log/audit folder -consumes majority of the space.
+*Saved logs from log rotate policy reference a date that is not in line with the policy.
+Unable to connect to the vCenter Server as services are not started.
+*Running /etc/cron.daily/logrotate manually rotates logs as expected.
+*Accessing vSphere Web Client might fail with error: 503 service unavailable</t>
+  </si>
+  <si>
+    <t>KB_2149278</t>
+  </si>
+  <si>
+    <t>KB_52258</t>
   </si>
 </sst>
 </file>
@@ -175,7 +211,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -263,11 +299,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -294,10 +339,19 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -613,14 +667,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16EC3556-6287-4348-A969-B6A6D9F21CE7}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.6640625" customWidth="1"/>
+    <col min="1" max="1" width="44.33203125" customWidth="1"/>
+    <col min="2" max="2" width="51.1640625" customWidth="1"/>
     <col min="3" max="3" width="37.6640625" customWidth="1"/>
     <col min="4" max="4" width="28" customWidth="1"/>
   </cols>
@@ -639,7 +695,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="210">
+    <row r="2" spans="1:4" ht="75">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -653,7 +709,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="90">
+    <row r="3" spans="1:4" ht="45">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -667,7 +723,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="195">
+    <row r="4" spans="1:4" ht="75">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -681,7 +737,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="195">
+    <row r="5" spans="1:4" ht="75">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -695,7 +751,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="195">
+    <row r="6" spans="1:4" ht="75">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -709,7 +765,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="90">
+    <row r="7" spans="1:4" ht="30">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
@@ -723,7 +779,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="90">
+    <row r="8" spans="1:4" ht="30">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
@@ -737,11 +793,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="300">
+    <row r="9" spans="1:4" ht="120">
       <c r="A9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -751,9 +807,11 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="180">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10" t="s">
+    <row r="10" spans="1:4" ht="60">
+      <c r="A10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -763,10 +821,50 @@
         <v>29</v>
       </c>
     </row>
+    <row r="11" spans="1:4" ht="187">
+      <c r="A11" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="131" customHeight="1">
+      <c r="A12" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A9:A10"/>
-  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{145A209C-F4D9-E84D-B862-E72635D2020E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>